--- a/src/test/resources/sample3.xlsx
+++ b/src/test/resources/sample3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,19 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Ivanov</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Oleg</t>
-  </si>
-  <si>
     <t>Smirnova</t>
   </si>
   <si>
     <t>Svetlana</t>
+  </si>
+  <si>
+    <t>Pereponov</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,22 +380,22 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -408,25 +408,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
